--- a/y=x3.xlsx
+++ b/y=x3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -33,18 +33,28 @@
   <si>
     <t>y=kx/T</t>
   </si>
+  <si>
+    <t>y=kx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,34 +91,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +415,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,475 +425,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.97</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <f>(ABS(A4/100))^(1/2)</f>
         <v>0.31622776601683794</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <f>10*(ABS(A4/10))^(1)</f>
         <v>10</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>A4*$D$2</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <f>A4*$D$2/$E$2</f>
         <v>3.2333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <f t="shared" ref="B5:B24" si="0">(ABS(A5/100))^(1/2)</f>
         <v>0.3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C24" si="1">10*(ABS(A5/10))^(1)</f>
         <v>9</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <f t="shared" ref="D5:D24" si="2">A5*$D$2</f>
         <v>8.73</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <f t="shared" ref="E5:E24" si="3">A5*$D$2/$E$2</f>
         <v>2.91</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>0.28284271247461901</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="2"/>
         <v>7.76</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <f t="shared" si="3"/>
         <v>2.5866666666666664</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>0.26457513110645908</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>6.79</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <f t="shared" si="3"/>
         <v>2.2633333333333332</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>0.2449489742783178</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>5.82</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <f t="shared" si="3"/>
         <v>1.9400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>0.22360679774997896</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>4.8499999999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f t="shared" si="3"/>
         <v>1.6166666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="2"/>
         <v>3.88</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <f t="shared" si="3"/>
         <v>1.2933333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>0.17320508075688773</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>2.91</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <f t="shared" si="3"/>
         <v>0.97000000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>1.94</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <f t="shared" si="3"/>
         <v>0.64666666666666661</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <f t="shared" si="3"/>
         <v>0.32333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>-1</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>-0.97</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <f t="shared" si="3"/>
         <v>-0.32333333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>-2</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <f t="shared" si="2"/>
         <v>-1.94</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <f t="shared" si="3"/>
         <v>-0.64666666666666661</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>-3</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>0.17320508075688773</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>-2.91</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <f t="shared" si="3"/>
         <v>-0.97000000000000008</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>-4</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>-3.88</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <f t="shared" si="3"/>
         <v>-1.2933333333333332</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>-5</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>0.22360679774997896</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>-4.8499999999999996</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <f t="shared" si="3"/>
         <v>-1.6166666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>-6</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>0.2449489742783178</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
         <v>-5.82</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <f t="shared" si="3"/>
         <v>-1.9400000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>-7</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>0.26457513110645908</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
         <v>-6.79</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <f t="shared" si="3"/>
         <v>-2.2633333333333332</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>-8</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>0.28284271247461901</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <f t="shared" si="2"/>
         <v>-7.76</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <f t="shared" si="3"/>
         <v>-2.5866666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>-9</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>-8.73</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <f t="shared" si="3"/>
         <v>-2.91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>-10</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>0.31622776601683794</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <f t="shared" si="2"/>
         <v>-9.6999999999999993</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <f t="shared" si="3"/>
         <v>-3.2333333333333329</v>
       </c>
